--- a/data/_raw/flow_information_covid.xlsx
+++ b/data/_raw/flow_information_covid.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Sund\Public\T-cells-and-cancer\SRH group\Group members\COVID team\Susana_FCS files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skosk\Desktop\R for bioscience\Project\2021_group04_final_project\data\_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>APC-A</t>
   </si>
@@ -108,12 +108,6 @@
     <t>Live-Dead</t>
   </si>
   <si>
-    <t>Multimer-PE</t>
-  </si>
-  <si>
-    <t>Multimer-APC</t>
-  </si>
-  <si>
     <t>Fluor</t>
   </si>
   <si>
@@ -121,6 +115,12 @@
   </si>
   <si>
     <t>CD3</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2 Multimer</t>
+  </si>
+  <si>
+    <t>CEF Multimer</t>
   </si>
 </sst>
 </file>
@@ -474,17 +474,17 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -564,7 +564,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -588,7 +588,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2">
